--- a/res/ozono_minsize.xlsx
+++ b/res/ozono_minsize.xlsx
@@ -374,13 +374,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.191167049960291</v>
+        <v>0.192991033182664</v>
       </c>
       <c r="C2" t="n">
-        <v>8.57902758804837</v>
+        <v>8.56909040750612</v>
       </c>
       <c r="D2" t="n">
-        <v>0.613486681246098</v>
+        <v>0.614363312983159</v>
       </c>
     </row>
     <row r="3">
@@ -388,13 +388,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.192886762549923</v>
+        <v>0.192730570602027</v>
       </c>
       <c r="C3" t="n">
-        <v>8.56678161308674</v>
+        <v>8.56679896154578</v>
       </c>
       <c r="D3" t="n">
-        <v>0.614571588371153</v>
+        <v>0.614577468829989</v>
       </c>
     </row>
     <row r="4">
@@ -402,13 +402,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.12330434241455</v>
+        <v>0.124594479914413</v>
       </c>
       <c r="C4" t="n">
-        <v>8.82185653568472</v>
+        <v>8.80486277888415</v>
       </c>
       <c r="D4" t="n">
-        <v>0.587329696844717</v>
+        <v>0.58844822048728</v>
       </c>
     </row>
     <row r="5">
@@ -416,13 +416,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.124409016303932</v>
+        <v>0.121972313249735</v>
       </c>
       <c r="C5" t="n">
-        <v>8.80788246884447</v>
+        <v>8.83299633761377</v>
       </c>
       <c r="D5" t="n">
-        <v>0.588355833621109</v>
+        <v>0.586114801256328</v>
       </c>
     </row>
     <row r="6">
@@ -430,13 +430,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.122584494977567</v>
+        <v>0.122147163005381</v>
       </c>
       <c r="C6" t="n">
-        <v>8.82637343099517</v>
+        <v>8.82899857825463</v>
       </c>
       <c r="D6" t="n">
-        <v>0.58657665949125</v>
+        <v>0.586491437320739</v>
       </c>
     </row>
     <row r="7">
@@ -444,13 +444,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.123178939461891</v>
+        <v>0.122421159255852</v>
       </c>
       <c r="C7" t="n">
-        <v>8.82506882367524</v>
+        <v>8.82262416091251</v>
       </c>
       <c r="D7" t="n">
-        <v>0.586783441823194</v>
+        <v>0.586839200874196</v>
       </c>
     </row>
     <row r="8">
@@ -458,13 +458,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.122302032406174</v>
+        <v>0.121776338722119</v>
       </c>
       <c r="C8" t="n">
-        <v>8.8266531847378</v>
+        <v>8.83447559959065</v>
       </c>
       <c r="D8" t="n">
-        <v>0.58647130173211</v>
+        <v>0.585966306821123</v>
       </c>
     </row>
     <row r="9">
@@ -472,13 +472,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.122819224303584</v>
+        <v>0.121658889881121</v>
       </c>
       <c r="C9" t="n">
-        <v>8.82135497841036</v>
+        <v>8.83377670241619</v>
       </c>
       <c r="D9" t="n">
-        <v>0.587033617653633</v>
+        <v>0.585972914629189</v>
       </c>
     </row>
     <row r="10">
@@ -486,13 +486,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.122207790689104</v>
+        <v>0.122959065564311</v>
       </c>
       <c r="C10" t="n">
-        <v>8.83217478711244</v>
+        <v>8.82002606903799</v>
       </c>
       <c r="D10" t="n">
-        <v>0.586243867389452</v>
+        <v>0.587320875318748</v>
       </c>
     </row>
   </sheetData>
